--- a/src/databases/ouputs_electrical.xlsx
+++ b/src/databases/ouputs_electrical.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pchainho\Documents\GitHub\DTOcean-WP5-Installation\src\databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="collection point" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="dynamic cable" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="static cable" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="cable route" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="connectors" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="external protection" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="layout" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="collection point" sheetId="1" r:id="rId1"/>
+    <sheet name="dynamic cable" sheetId="2" r:id="rId2"/>
+    <sheet name="static cable" sheetId="3" r:id="rId3"/>
+    <sheet name="cable route" sheetId="4" r:id="rId4"/>
+    <sheet name="connectors" sheetId="5" r:id="rId5"/>
+    <sheet name="external protection" sheetId="6" r:id="rId6"/>
+    <sheet name="layout" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>id [-]</t>
   </si>
@@ -171,44 +175,32 @@
   </si>
   <si>
     <t>type 1</t>
+  </si>
+  <si>
+    <t>upstream ei number [-]</t>
+  </si>
+  <si>
+    <t>downstream ei number [-]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,107 +212,358 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J18" activeCellId="0" pane="topLeft" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.756862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.756862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.756862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.4823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.756862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7764705882353"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.6549019607843"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.2196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.756862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.4941176470588"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.2039215686275"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.4980392156863"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.6352941176471"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.56862745098039"/>
+    <col min="1" max="2" width="10.7109375"/>
+    <col min="3" max="3" width="12.85546875"/>
+    <col min="4" max="4" width="13.28515625"/>
+    <col min="5" max="5" width="10.7109375"/>
+    <col min="6" max="6" width="14.85546875"/>
+    <col min="7" max="7" width="10.7109375"/>
+    <col min="8" max="8" width="13.42578125"/>
+    <col min="9" max="9" width="10.7109375"/>
+    <col min="10" max="10" width="14.28515625"/>
+    <col min="11" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.140625"/>
+    <col min="20" max="20" width="17.42578125"/>
+    <col min="21" max="21" width="16.5703125"/>
+    <col min="22" max="1027" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="1" s="2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -355,81 +598,80 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O1" activeCellId="0" pane="topLeft" sqref="O1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.56862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4745098039216"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.7686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.4901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.2117647058824"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.2"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6313725490196"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.7803921568627"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.356862745098"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="14.4862745098039"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.3372549019608"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="13.1960784313725"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.0549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="14.2"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="13.3372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.56862745098039"/>
+    <col min="1" max="2" width="8.5703125"/>
+    <col min="3" max="3" width="17.5703125"/>
+    <col min="4" max="4" width="20.42578125"/>
+    <col min="5" max="5" width="17.5703125"/>
+    <col min="6" max="6" width="15.85546875"/>
+    <col min="7" max="7" width="14.140625"/>
+    <col min="8" max="8" width="11.42578125"/>
+    <col min="9" max="9" width="15.7109375"/>
+    <col min="10" max="10" width="13.7109375"/>
+    <col min="11" max="11" width="15.42578125"/>
+    <col min="12" max="12" width="17.140625"/>
+    <col min="13" max="13" width="14.140625"/>
+    <col min="14" max="14" width="15.5703125"/>
+    <col min="15" max="15" width="17.7109375"/>
+    <col min="16" max="16" width="16.7109375"/>
+    <col min="17" max="17" width="18.28515625"/>
+    <col min="18" max="18" width="16.85546875"/>
+    <col min="19" max="20" width="14.42578125"/>
+    <col min="21" max="21" width="13.28515625"/>
+    <col min="22" max="22" width="13.140625"/>
+    <col min="23" max="23" width="14.28515625"/>
+    <col min="24" max="24" width="14"/>
+    <col min="25" max="25" width="14.140625"/>
+    <col min="26" max="26" width="13.28515625"/>
+    <col min="27" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="70.5" outlineLevel="0" r="1" s="2">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -508,39 +750,32 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F21" activeCellId="0" pane="topLeft" sqref="F21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="3" width="10.756862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="16.7803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="13.6235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="15.3450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="13.4823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.756862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="9" style="0" width="15.7764705882353"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.56862745098039"/>
+    <col min="1" max="2" width="10.7109375" style="3"/>
+    <col min="3" max="3" width="16.7109375" style="3"/>
+    <col min="4" max="4" width="13.5703125" style="3"/>
+    <col min="5" max="5" width="15.28515625" style="3"/>
+    <col min="6" max="6" width="13.42578125" style="3"/>
+    <col min="7" max="8" width="10.7109375"/>
+    <col min="9" max="16" width="15.7109375"/>
+    <col min="17" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="57" outlineLevel="0" r="1" s="4">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,40 +826,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7725490196078"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.56862745098039"/>
+    <col min="1" max="1" width="20.28515625"/>
+    <col min="2" max="2" width="17.140625"/>
+    <col min="3" max="3" width="16.28515625"/>
+    <col min="4" max="4" width="11.140625"/>
+    <col min="5" max="5" width="14.7109375"/>
+    <col min="6" max="6" width="17.85546875"/>
+    <col min="7" max="7" width="20.7109375"/>
+    <col min="8" max="8" width="15.140625"/>
+    <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="1" s="3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -651,39 +879,30 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.756862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.756862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.7843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.56862745098039"/>
+    <col min="1" max="2" width="10.7109375"/>
+    <col min="3" max="3" width="13.7109375"/>
+    <col min="4" max="4" width="13.28515625"/>
+    <col min="5" max="5" width="10.7109375"/>
+    <col min="6" max="6" width="15"/>
+    <col min="7" max="7" width="17.7109375"/>
+    <col min="8" max="8" width="20"/>
+    <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="1" s="5">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,37 +929,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.56862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.756862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.56862745098039"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="2" max="2" width="20.140625"/>
+    <col min="3" max="3" width="16.5703125"/>
+    <col min="4" max="4" width="15.85546875"/>
+    <col min="5" max="5" width="10.7109375"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="1">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,34 +968,25 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.18039215686274"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.18039215686274"/>
+    <col min="2" max="2" width="23.28515625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.15" outlineLevel="0" r="1">
+    <row r="1" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,16 +994,15 @@
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/src/databases/ouputs_electrical.xlsx
+++ b/src/databases/ouputs_electrical.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>id [-]</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>downstream ei number [-]</t>
+  </si>
+  <si>
+    <t>dry-mate</t>
+  </si>
+  <si>
+    <t>wet-mate</t>
+  </si>
+  <si>
+    <t>Seabed</t>
   </si>
 </sst>
 </file>
@@ -238,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -253,6 +262,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,6 +640,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="6">
+        <v>4</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -636,116 +668,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.5703125"/>
-    <col min="3" max="3" width="17.5703125"/>
-    <col min="4" max="4" width="20.42578125"/>
-    <col min="5" max="5" width="17.5703125"/>
-    <col min="6" max="6" width="15.85546875"/>
-    <col min="7" max="7" width="14.140625"/>
-    <col min="8" max="8" width="11.42578125"/>
-    <col min="9" max="9" width="15.7109375"/>
-    <col min="10" max="10" width="13.7109375"/>
-    <col min="11" max="11" width="15.42578125"/>
-    <col min="12" max="12" width="17.140625"/>
-    <col min="13" max="13" width="14.140625"/>
-    <col min="14" max="14" width="15.5703125"/>
-    <col min="15" max="15" width="17.7109375"/>
-    <col min="16" max="16" width="16.7109375"/>
-    <col min="17" max="17" width="18.28515625"/>
-    <col min="18" max="18" width="16.85546875"/>
-    <col min="19" max="20" width="14.42578125"/>
-    <col min="21" max="21" width="13.28515625"/>
-    <col min="22" max="22" width="13.140625"/>
-    <col min="23" max="23" width="14.28515625"/>
-    <col min="24" max="24" width="14"/>
-    <col min="25" max="25" width="14.140625"/>
-    <col min="26" max="26" width="13.28515625"/>
-    <col min="27" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="2" max="2" width="17.5703125"/>
+    <col min="3" max="3" width="20.42578125"/>
+    <col min="4" max="4" width="17.5703125"/>
+    <col min="5" max="5" width="15.85546875"/>
+    <col min="6" max="6" width="14.140625"/>
+    <col min="7" max="7" width="11.42578125"/>
+    <col min="8" max="8" width="15.7109375"/>
+    <col min="9" max="9" width="13.7109375"/>
+    <col min="10" max="10" width="15.42578125"/>
+    <col min="11" max="11" width="17.140625"/>
+    <col min="12" max="12" width="14.140625"/>
+    <col min="13" max="13" width="15.5703125"/>
+    <col min="14" max="14" width="17.7109375"/>
+    <col min="15" max="15" width="16.7109375"/>
+    <col min="16" max="16" width="18.28515625"/>
+    <col min="17" max="17" width="16.85546875"/>
+    <col min="18" max="19" width="14.42578125"/>
+    <col min="20" max="20" width="13.28515625"/>
+    <col min="21" max="21" width="13.140625"/>
+    <col min="22" max="22" width="14.28515625"/>
+    <col min="23" max="23" width="14"/>
+    <col min="24" max="24" width="14.140625"/>
+    <col min="25" max="25" width="13.28515625"/>
+    <col min="26" max="1024" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z1" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/src/databases/ouputs_electrical.xlsx
+++ b/src/databases/ouputs_electrical.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="collection point" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>id [-]</t>
   </si>
@@ -189,7 +189,22 @@
     <t>wet-mate</t>
   </si>
   <si>
-    <t>Seabed</t>
+    <t>device</t>
+  </si>
+  <si>
+    <t>collection point</t>
+  </si>
+  <si>
+    <t>seabed</t>
+  </si>
+  <si>
+    <t>static cable</t>
+  </si>
+  <si>
+    <t>j-tube</t>
+  </si>
+  <si>
+    <t>splice</t>
   </si>
 </sst>
 </file>
@@ -548,7 +563,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,10 +657,10 @@
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>52</v>
@@ -668,10 +683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,6 +795,102 @@
         <v>37</v>
       </c>
     </row>
+    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6">
+        <v>500</v>
+      </c>
+      <c r="E2" s="6">
+        <v>100</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6">
+        <v>750</v>
+      </c>
+      <c r="E3" s="6">
+        <v>100</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6">
+        <v>300</v>
+      </c>
+      <c r="E4" s="6">
+        <v>100</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/src/databases/ouputs_electrical.xlsx
+++ b/src/databases/ouputs_electrical.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pchainho\Documents\GitHub\DTOcean-WP5-Installation\src\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pchainho\Documents\DTOcean-WP5-Installation\src\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="collection point" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="71">
   <si>
     <t>id [-]</t>
   </si>
@@ -177,12 +177,6 @@
     <t>type 1</t>
   </si>
   <si>
-    <t>upstream ei number [-]</t>
-  </si>
-  <si>
-    <t>downstream ei number [-]</t>
-  </si>
-  <si>
     <t>dry-mate</t>
   </si>
   <si>
@@ -205,13 +199,52 @@
   </si>
   <si>
     <t>splice</t>
+  </si>
+  <si>
+    <t>[wet-mate,wet-mate,wet-mate,wet-mate]</t>
+  </si>
+  <si>
+    <t>[3,4,5,7]</t>
+  </si>
+  <si>
+    <t>[wet-mate]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[wet-mate,wet-mate,wet-mate,wet-mate,wet-mate]</t>
+  </si>
+  <si>
+    <t>[12,13,14,15,17]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>[22,23,24,25,27]</t>
+  </si>
+  <si>
+    <t>[26]</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -225,6 +258,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -280,6 +332,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,20 +649,19 @@
     <col min="8" max="8" width="13.42578125"/>
     <col min="9" max="9" width="10.7109375"/>
     <col min="10" max="10" width="14.28515625"/>
-    <col min="11" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" customWidth="1"/>
-    <col min="19" max="19" width="15.140625"/>
-    <col min="20" max="20" width="17.42578125"/>
-    <col min="21" max="21" width="16.5703125"/>
-    <col min="22" max="1027" width="8.5703125"/>
+    <col min="11" max="11" width="49.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.140625"/>
+    <col min="18" max="18" width="17.42578125"/>
+    <col min="19" max="19" width="16.5703125"/>
+    <col min="20" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,55 +696,146 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="6">
-        <v>4</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="6">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="7">
+        <v>450</v>
+      </c>
+      <c r="D2" s="7">
+        <v>250</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="7">
+        <v>450</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1050</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7">
+        <v>450</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1850</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -809,22 +971,22 @@
         <v>100</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="6">
         <v>0</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N2" s="6">
         <v>0</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -841,22 +1003,22 @@
         <v>100</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -873,22 +1035,22 @@
         <v>100</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A2" sqref="A2:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,6 +1129,576 @@
         <v>33</v>
       </c>
     </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="9">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="9">
+        <v>26</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="9">
+        <v>3</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="9">
+        <v>16</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="9">
+        <v>6</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="9">
+        <v>2</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="9">
+        <v>4</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="9">
+        <v>9</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="9">
+        <v>8</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="9">
+        <v>10</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="9">
+        <v>6</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="9">
+        <v>11</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="9">
+        <v>8</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="9">
+        <v>19</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="9">
+        <v>7</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="9">
+        <v>18</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="9">
+        <v>9</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="9">
+        <v>3</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="9">
+        <v>20</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="9">
+        <v>10</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="9">
+        <v>3</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="9">
+        <v>21</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="9">
+        <v>12</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="9">
+        <v>3</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="9">
+        <v>29</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="9">
+        <v>11</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="9">
+        <v>3</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="9">
+        <v>28</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -975,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2:D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,6 +1752,1812 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>450</v>
+      </c>
+      <c r="C2">
+        <v>1100</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>450</v>
+      </c>
+      <c r="C3">
+        <v>1150</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>450</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>450</v>
+      </c>
+      <c r="C5">
+        <v>1250</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>450</v>
+      </c>
+      <c r="C6">
+        <v>1300</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>450</v>
+      </c>
+      <c r="C7">
+        <v>1350</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>450</v>
+      </c>
+      <c r="C8">
+        <v>1400</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>450</v>
+      </c>
+      <c r="C9">
+        <v>1450</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>450</v>
+      </c>
+      <c r="C10">
+        <v>1500</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>450</v>
+      </c>
+      <c r="C11">
+        <v>1550</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>450</v>
+      </c>
+      <c r="C12">
+        <v>1600</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>450</v>
+      </c>
+      <c r="C13">
+        <v>1650</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>450</v>
+      </c>
+      <c r="C14">
+        <v>1700</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>450</v>
+      </c>
+      <c r="C15">
+        <v>1750</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>450</v>
+      </c>
+      <c r="C16">
+        <v>1800</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>450</v>
+      </c>
+      <c r="C17">
+        <v>300</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>450</v>
+      </c>
+      <c r="C18">
+        <v>350</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>450</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>450</v>
+      </c>
+      <c r="C20">
+        <v>450</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>450</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>450</v>
+      </c>
+      <c r="C22">
+        <v>550</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>450</v>
+      </c>
+      <c r="C23">
+        <v>600</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>450</v>
+      </c>
+      <c r="C24">
+        <v>650</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>450</v>
+      </c>
+      <c r="C25">
+        <v>700</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>450</v>
+      </c>
+      <c r="C26">
+        <v>750</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>450</v>
+      </c>
+      <c r="C27">
+        <v>800</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>450</v>
+      </c>
+      <c r="C28">
+        <v>850</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>450</v>
+      </c>
+      <c r="C29">
+        <v>900</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>450</v>
+      </c>
+      <c r="C30">
+        <v>950</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>450</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="14">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>150</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>250</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>300</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>350</v>
+      </c>
+      <c r="C37">
+        <v>150</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>400</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>500</v>
+      </c>
+      <c r="C39">
+        <v>200</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>550</v>
+      </c>
+      <c r="C40">
+        <v>150</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>600</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>650</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>700</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>750</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>800</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>500</v>
+      </c>
+      <c r="C46">
+        <v>300</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>550</v>
+      </c>
+      <c r="C47">
+        <v>350</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>600</v>
+      </c>
+      <c r="C48">
+        <v>400</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>650</v>
+      </c>
+      <c r="C49">
+        <v>450</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>700</v>
+      </c>
+      <c r="C50">
+        <v>450</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>750</v>
+      </c>
+      <c r="C51">
+        <v>450</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>800</v>
+      </c>
+      <c r="C52">
+        <v>450</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <v>450</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>150</v>
+      </c>
+      <c r="C54">
+        <v>450</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+      <c r="C55">
+        <v>450</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>250</v>
+      </c>
+      <c r="C56">
+        <v>450</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>300</v>
+      </c>
+      <c r="C57">
+        <v>400</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>350</v>
+      </c>
+      <c r="C58">
+        <v>350</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>400</v>
+      </c>
+      <c r="C59">
+        <v>300</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>850</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>150</v>
+      </c>
+      <c r="C61">
+        <v>850</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+      <c r="C62">
+        <v>850</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>250</v>
+      </c>
+      <c r="C63">
+        <v>850</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>300</v>
+      </c>
+      <c r="C64">
+        <v>900</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>350</v>
+      </c>
+      <c r="C65">
+        <v>950</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>400</v>
+      </c>
+      <c r="C66">
+        <v>1000</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>500</v>
+      </c>
+      <c r="C67">
+        <v>1000</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>550</v>
+      </c>
+      <c r="C68">
+        <v>950</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>600</v>
+      </c>
+      <c r="C69">
+        <v>900</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>650</v>
+      </c>
+      <c r="C70">
+        <v>850</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>700</v>
+      </c>
+      <c r="C71">
+        <v>850</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>750</v>
+      </c>
+      <c r="C72">
+        <v>850</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>800</v>
+      </c>
+      <c r="C73">
+        <v>850</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>500</v>
+      </c>
+      <c r="C74">
+        <v>1100</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>550</v>
+      </c>
+      <c r="C75">
+        <v>1150</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>600</v>
+      </c>
+      <c r="C76">
+        <v>1200</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>650</v>
+      </c>
+      <c r="C77">
+        <v>1250</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>700</v>
+      </c>
+      <c r="C78">
+        <v>1250</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>750</v>
+      </c>
+      <c r="C79">
+        <v>1250</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>800</v>
+      </c>
+      <c r="C80">
+        <v>1250</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>1250</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>11</v>
+      </c>
+      <c r="B82">
+        <v>150</v>
+      </c>
+      <c r="C82">
+        <v>1250</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>11</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+      <c r="C83">
+        <v>1250</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>250</v>
+      </c>
+      <c r="C84">
+        <v>1250</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <v>300</v>
+      </c>
+      <c r="C85">
+        <v>1200</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>11</v>
+      </c>
+      <c r="B86">
+        <v>350</v>
+      </c>
+      <c r="C86">
+        <v>1150</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>11</v>
+      </c>
+      <c r="B87">
+        <v>400</v>
+      </c>
+      <c r="C87">
+        <v>1100</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <v>100</v>
+      </c>
+      <c r="C88">
+        <v>1650</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>12</v>
+      </c>
+      <c r="B89">
+        <v>150</v>
+      </c>
+      <c r="C89">
+        <v>1650</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>12</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+      <c r="C90">
+        <v>1650</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>250</v>
+      </c>
+      <c r="C91">
+        <v>1650</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <v>300</v>
+      </c>
+      <c r="C92">
+        <v>1700</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>350</v>
+      </c>
+      <c r="C93">
+        <v>1750</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>400</v>
+      </c>
+      <c r="C94">
+        <v>1800</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <v>500</v>
+      </c>
+      <c r="C95">
+        <v>1800</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>550</v>
+      </c>
+      <c r="C96">
+        <v>1750</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>13</v>
+      </c>
+      <c r="B97">
+        <v>600</v>
+      </c>
+      <c r="C97">
+        <v>1700</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>13</v>
+      </c>
+      <c r="B98">
+        <v>650</v>
+      </c>
+      <c r="C98">
+        <v>1650</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>13</v>
+      </c>
+      <c r="B99">
+        <v>700</v>
+      </c>
+      <c r="C99">
+        <v>1650</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>13</v>
+      </c>
+      <c r="B100">
+        <v>750</v>
+      </c>
+      <c r="C100">
+        <v>1650</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>13</v>
+      </c>
+      <c r="B101">
+        <v>800</v>
+      </c>
+      <c r="C101">
+        <v>1650</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>14</v>
+      </c>
+      <c r="B102">
+        <v>500</v>
+      </c>
+      <c r="C102">
+        <v>1900</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>14</v>
+      </c>
+      <c r="B103">
+        <v>550</v>
+      </c>
+      <c r="C103">
+        <v>1950</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>14</v>
+      </c>
+      <c r="B104">
+        <v>600</v>
+      </c>
+      <c r="C104">
+        <v>2000</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>14</v>
+      </c>
+      <c r="B105">
+        <v>650</v>
+      </c>
+      <c r="C105">
+        <v>2050</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>14</v>
+      </c>
+      <c r="B106">
+        <v>700</v>
+      </c>
+      <c r="C106">
+        <v>2050</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="B107">
+        <v>750</v>
+      </c>
+      <c r="C107">
+        <v>2050</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>14</v>
+      </c>
+      <c r="B108">
+        <v>800</v>
+      </c>
+      <c r="C108">
+        <v>2050</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>15</v>
+      </c>
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109">
+        <v>2050</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>15</v>
+      </c>
+      <c r="B110">
+        <v>150</v>
+      </c>
+      <c r="C110">
+        <v>2050</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>15</v>
+      </c>
+      <c r="B111">
+        <v>200</v>
+      </c>
+      <c r="C111">
+        <v>2050</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>15</v>
+      </c>
+      <c r="B112">
+        <v>250</v>
+      </c>
+      <c r="C112">
+        <v>2050</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>15</v>
+      </c>
+      <c r="B113">
+        <v>300</v>
+      </c>
+      <c r="C113">
+        <v>2000</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>15</v>
+      </c>
+      <c r="B114">
+        <v>350</v>
+      </c>
+      <c r="C114">
+        <v>1950</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>15</v>
+      </c>
+      <c r="B115">
+        <v>400</v>
+      </c>
+      <c r="C115">
+        <v>1900</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" s="3">
+        <v>450</v>
+      </c>
+      <c r="C116">
+        <v>1900</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>450</v>
+      </c>
+      <c r="C117">
+        <v>1950</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" s="3">
+        <v>450</v>
+      </c>
+      <c r="C118">
+        <v>2000</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>450</v>
+      </c>
+      <c r="C119">
+        <v>2050</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" s="3">
+        <v>450</v>
+      </c>
+      <c r="C120">
+        <v>2100</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>450</v>
+      </c>
+      <c r="C121">
+        <v>2150</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" s="3">
+        <v>450</v>
+      </c>
+      <c r="C122">
+        <v>2200</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>450</v>
+      </c>
+      <c r="C123">
+        <v>2250</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" s="3">
+        <v>450</v>
+      </c>
+      <c r="C124">
+        <v>2300</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>450</v>
+      </c>
+      <c r="C125">
+        <v>2350</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" s="3">
+        <v>450</v>
+      </c>
+      <c r="C126">
+        <v>2400</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>450</v>
+      </c>
+      <c r="C127">
+        <v>2450</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3">
+        <v>450</v>
+      </c>
+      <c r="C128">
+        <v>2500</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>450</v>
+      </c>
+      <c r="C129">
+        <v>2550</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" s="3">
+        <v>450</v>
+      </c>
+      <c r="C130">
+        <v>2600</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1028,9 +3566,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1068,6 +3608,238 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/databases/ouputs_electrical.xlsx
+++ b/src/databases/ouputs_electrical.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="collection point" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="74">
   <si>
     <t>id [-]</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>array</t>
+  </si>
+  <si>
+    <t>device001</t>
+  </si>
+  <si>
+    <t>device002</t>
+  </si>
+  <si>
+    <t>trench type [-]</t>
   </si>
 </sst>
 </file>
@@ -634,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,14 +982,14 @@
       <c r="H2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="6">
-        <v>0</v>
+      <c r="I2" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="6">
-        <v>0</v>
+      <c r="N2" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>51</v>
@@ -1005,14 +1014,14 @@
       <c r="H3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="6">
-        <v>0</v>
+      <c r="I3" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
+      <c r="N3" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>50</v>
@@ -1038,13 +1047,13 @@
         <v>53</v>
       </c>
       <c r="I4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
+      <c r="N4" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>56</v>
@@ -1064,7 +1073,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D130"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,10 +1732,11 @@
     <col min="6" max="6" width="17.85546875"/>
     <col min="7" max="7" width="20.7109375"/>
     <col min="8" max="8" width="15.140625"/>
-    <col min="9" max="1025" width="8.5703125"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1751,8 +1761,11 @@
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1766,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1780,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1794,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1808,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1822,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1836,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1850,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1864,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1878,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1892,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1906,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1920,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1934,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1948,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3892,7 +3905,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/databases/ouputs_electrical.xlsx
+++ b/src/databases/ouputs_electrical.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="74">
   <si>
     <t>id [-]</t>
   </si>
@@ -1716,1858 +1716,2248 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625"/>
-    <col min="2" max="2" width="17.140625"/>
-    <col min="3" max="3" width="16.28515625"/>
-    <col min="4" max="4" width="11.140625"/>
-    <col min="5" max="5" width="14.7109375"/>
-    <col min="6" max="6" width="17.85546875"/>
-    <col min="7" max="7" width="20.7109375"/>
-    <col min="8" max="8" width="15.140625"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="1025" width="8.5703125"/>
+    <col min="2" max="2" width="20.28515625"/>
+    <col min="3" max="3" width="17.140625"/>
+    <col min="4" max="4" width="16.28515625"/>
+    <col min="5" max="5" width="11.140625"/>
+    <col min="6" max="6" width="14.7109375"/>
+    <col min="7" max="7" width="17.85546875"/>
+    <col min="8" max="8" width="20.7109375"/>
+    <col min="9" max="9" width="15.140625"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="1026" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>450</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="3">
+        <v>450</v>
+      </c>
+      <c r="D2">
         <v>1100</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>450</v>
-      </c>
       <c r="C3">
+        <v>450</v>
+      </c>
+      <c r="D3">
         <v>1150</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>450</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>450</v>
+      </c>
+      <c r="D4">
         <v>1200</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>450</v>
-      </c>
       <c r="C5">
+        <v>450</v>
+      </c>
+      <c r="D5">
         <v>1250</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>450</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="3">
+        <v>450</v>
+      </c>
+      <c r="D6">
         <v>1300</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>450</v>
-      </c>
       <c r="C7">
+        <v>450</v>
+      </c>
+      <c r="D7">
         <v>1350</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
-        <v>450</v>
-      </c>
-      <c r="C8">
+      <c r="C8" s="3">
+        <v>450</v>
+      </c>
+      <c r="D8">
         <v>1400</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>450</v>
-      </c>
       <c r="C9">
+        <v>450</v>
+      </c>
+      <c r="D9">
         <v>1450</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="B10" s="3">
-        <v>450</v>
-      </c>
-      <c r="C10">
+      <c r="C10" s="3">
+        <v>450</v>
+      </c>
+      <c r="D10">
         <v>1500</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>450</v>
-      </c>
       <c r="C11">
+        <v>450</v>
+      </c>
+      <c r="D11">
         <v>1550</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
-        <v>450</v>
-      </c>
-      <c r="C12">
+      <c r="C12" s="3">
+        <v>450</v>
+      </c>
+      <c r="D12">
         <v>1600</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>450</v>
-      </c>
       <c r="C13">
+        <v>450</v>
+      </c>
+      <c r="D13">
         <v>1650</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="B14" s="3">
-        <v>450</v>
-      </c>
-      <c r="C14">
+      <c r="C14" s="3">
+        <v>450</v>
+      </c>
+      <c r="D14">
         <v>1700</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>450</v>
-      </c>
       <c r="C15">
+        <v>450</v>
+      </c>
+      <c r="D15">
         <v>1750</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
-        <v>450</v>
-      </c>
-      <c r="C16">
+      <c r="C16" s="3">
+        <v>450</v>
+      </c>
+      <c r="D16">
         <v>1800</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="B17">
-        <v>450</v>
-      </c>
       <c r="C17">
+        <v>450</v>
+      </c>
+      <c r="D17">
         <v>300</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="B18">
-        <v>450</v>
-      </c>
       <c r="C18">
+        <v>450</v>
+      </c>
+      <c r="D18">
         <v>350</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="B19">
-        <v>450</v>
-      </c>
       <c r="C19">
+        <v>450</v>
+      </c>
+      <c r="D19">
         <v>400</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="B20">
-        <v>450</v>
-      </c>
       <c r="C20">
         <v>450</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <v>450</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="B21">
-        <v>450</v>
-      </c>
       <c r="C21">
+        <v>450</v>
+      </c>
+      <c r="D21">
         <v>500</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="B22">
-        <v>450</v>
-      </c>
       <c r="C22">
+        <v>450</v>
+      </c>
+      <c r="D22">
         <v>550</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="B23">
-        <v>450</v>
-      </c>
       <c r="C23">
+        <v>450</v>
+      </c>
+      <c r="D23">
         <v>600</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="B24">
-        <v>450</v>
-      </c>
       <c r="C24">
+        <v>450</v>
+      </c>
+      <c r="D24">
         <v>650</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="B25">
-        <v>450</v>
-      </c>
       <c r="C25">
+        <v>450</v>
+      </c>
+      <c r="D25">
         <v>700</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <v>3</v>
       </c>
-      <c r="B26">
-        <v>450</v>
-      </c>
       <c r="C26">
+        <v>450</v>
+      </c>
+      <c r="D26">
         <v>750</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="B27">
-        <v>450</v>
-      </c>
       <c r="C27">
+        <v>450</v>
+      </c>
+      <c r="D27">
         <v>800</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28">
         <v>3</v>
       </c>
-      <c r="B28">
-        <v>450</v>
-      </c>
       <c r="C28">
+        <v>450</v>
+      </c>
+      <c r="D28">
         <v>850</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="B29">
-        <v>450</v>
-      </c>
       <c r="C29">
+        <v>450</v>
+      </c>
+      <c r="D29">
         <v>900</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30">
         <v>3</v>
       </c>
-      <c r="B30">
-        <v>450</v>
-      </c>
       <c r="C30">
+        <v>450</v>
+      </c>
+      <c r="D30">
         <v>950</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31">
         <v>3</v>
       </c>
-      <c r="B31">
-        <v>450</v>
-      </c>
       <c r="C31">
+        <v>450</v>
+      </c>
+      <c r="D31">
         <v>1000</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32">
         <v>4</v>
       </c>
-      <c r="B32" s="14">
+      <c r="C32" s="14">
         <v>100</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>50</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>150</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>50</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34">
         <v>4</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>200</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>50</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>250</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>50</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36">
         <v>4</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>300</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>100</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37">
         <v>4</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>350</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>150</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38">
         <v>4</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>400</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>200</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39">
         <v>5</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>500</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>200</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40">
         <v>5</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>550</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>150</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>600</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>100</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42">
         <v>5</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>650</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>50</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>700</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>50</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
+      <c r="B44">
         <v>5</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>750</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>800</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>50</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46">
         <v>6</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>500</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>300</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47">
         <v>6</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>550</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>350</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48">
         <v>6</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>600</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>400</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
+      <c r="B49">
         <v>6</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>650</v>
       </c>
-      <c r="C49">
-        <v>450</v>
-      </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+        <v>450</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
+      <c r="B50">
         <v>6</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>700</v>
       </c>
-      <c r="C50">
-        <v>450</v>
-      </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+        <v>450</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>49</v>
+      </c>
+      <c r="B51">
         <v>6</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>750</v>
       </c>
-      <c r="C51">
-        <v>450</v>
-      </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+        <v>450</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52">
         <v>6</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>800</v>
       </c>
-      <c r="C52">
-        <v>450</v>
-      </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
+        <v>450</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
+      <c r="B53">
         <v>7</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>100</v>
       </c>
-      <c r="C53">
-        <v>450</v>
-      </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
+        <v>450</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>52</v>
+      </c>
+      <c r="B54">
         <v>7</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>150</v>
       </c>
-      <c r="C54">
-        <v>450</v>
-      </c>
       <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
+        <v>450</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>53</v>
+      </c>
+      <c r="B55">
         <v>7</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>200</v>
       </c>
-      <c r="C55">
-        <v>450</v>
-      </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
+        <v>450</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>54</v>
+      </c>
+      <c r="B56">
         <v>7</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>250</v>
       </c>
-      <c r="C56">
-        <v>450</v>
-      </c>
       <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
+        <v>450</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>55</v>
+      </c>
+      <c r="B57">
         <v>7</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>300</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>400</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>56</v>
+      </c>
+      <c r="B58">
         <v>7</v>
-      </c>
-      <c r="B58">
-        <v>350</v>
       </c>
       <c r="C58">
         <v>350</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
+        <v>350</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>57</v>
+      </c>
+      <c r="B59">
         <v>7</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>400</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>300</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>58</v>
+      </c>
+      <c r="B60">
         <v>8</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>100</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>850</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>59</v>
+      </c>
+      <c r="B61">
         <v>8</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>150</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>850</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>60</v>
+      </c>
+      <c r="B62">
         <v>8</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>200</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>850</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>61</v>
+      </c>
+      <c r="B63">
         <v>8</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>250</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>850</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>62</v>
+      </c>
+      <c r="B64">
         <v>8</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>300</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>900</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>63</v>
+      </c>
+      <c r="B65">
         <v>8</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>350</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>950</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>64</v>
+      </c>
+      <c r="B66">
         <v>8</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>400</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>1000</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>65</v>
+      </c>
+      <c r="B67">
         <v>9</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>500</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>1000</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>66</v>
+      </c>
+      <c r="B68">
         <v>9</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>550</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>950</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>67</v>
+      </c>
+      <c r="B69">
         <v>9</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>600</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>900</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>68</v>
+      </c>
+      <c r="B70">
         <v>9</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>650</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>850</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>69</v>
+      </c>
+      <c r="B71">
         <v>9</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>700</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>850</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>70</v>
+      </c>
+      <c r="B72">
         <v>9</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>750</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>850</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>71</v>
+      </c>
+      <c r="B73">
         <v>9</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>800</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>850</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>72</v>
+      </c>
+      <c r="B74">
         <v>10</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>500</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>1100</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>73</v>
+      </c>
+      <c r="B75">
         <v>10</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>550</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>1150</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>74</v>
+      </c>
+      <c r="B76">
         <v>10</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>600</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>1200</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>75</v>
+      </c>
+      <c r="B77">
         <v>10</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>650</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>1250</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>76</v>
+      </c>
+      <c r="B78">
         <v>10</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>700</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>1250</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>77</v>
+      </c>
+      <c r="B79">
         <v>10</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>750</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>1250</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>78</v>
+      </c>
+      <c r="B80">
         <v>10</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>800</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>1250</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>79</v>
+      </c>
+      <c r="B81">
         <v>11</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>100</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>1250</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>80</v>
+      </c>
+      <c r="B82">
         <v>11</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>150</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>1250</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>81</v>
+      </c>
+      <c r="B83">
         <v>11</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>200</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>1250</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>82</v>
+      </c>
+      <c r="B84">
         <v>11</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>250</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>1250</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>83</v>
+      </c>
+      <c r="B85">
         <v>11</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>300</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>1200</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>84</v>
+      </c>
+      <c r="B86">
         <v>11</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>350</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>1150</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>85</v>
+      </c>
+      <c r="B87">
         <v>11</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>400</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>1100</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>86</v>
+      </c>
+      <c r="B88">
         <v>12</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>100</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>1650</v>
       </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>87</v>
+      </c>
+      <c r="B89">
         <v>12</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>150</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>1650</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>88</v>
+      </c>
+      <c r="B90">
         <v>12</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>200</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>1650</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>89</v>
+      </c>
+      <c r="B91">
         <v>12</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>250</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>1650</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>90</v>
+      </c>
+      <c r="B92">
         <v>12</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>300</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>1700</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>91</v>
+      </c>
+      <c r="B93">
         <v>12</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>350</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>1750</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>92</v>
+      </c>
+      <c r="B94">
         <v>12</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>400</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>1800</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>93</v>
+      </c>
+      <c r="B95">
         <v>13</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>500</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>1800</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>94</v>
+      </c>
+      <c r="B96">
         <v>13</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>550</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>1750</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>95</v>
+      </c>
+      <c r="B97">
         <v>13</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>600</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>1700</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>96</v>
+      </c>
+      <c r="B98">
         <v>13</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>650</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>1650</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>97</v>
+      </c>
+      <c r="B99">
         <v>13</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>700</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>1650</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>98</v>
+      </c>
+      <c r="B100">
         <v>13</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>750</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>1650</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>99</v>
+      </c>
+      <c r="B101">
         <v>13</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>800</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>1650</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>100</v>
+      </c>
+      <c r="B102">
         <v>14</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>500</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>1900</v>
       </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>101</v>
+      </c>
+      <c r="B103">
         <v>14</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>550</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>1950</v>
       </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>102</v>
+      </c>
+      <c r="B104">
         <v>14</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>600</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>2000</v>
       </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>103</v>
+      </c>
+      <c r="B105">
         <v>14</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>650</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>2050</v>
       </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>104</v>
+      </c>
+      <c r="B106">
         <v>14</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>700</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>2050</v>
       </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>105</v>
+      </c>
+      <c r="B107">
         <v>14</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>750</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>2050</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>106</v>
+      </c>
+      <c r="B108">
         <v>14</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>800</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>2050</v>
       </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>107</v>
+      </c>
+      <c r="B109">
         <v>15</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>100</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>2050</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>108</v>
+      </c>
+      <c r="B110">
         <v>15</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>150</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>2050</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>109</v>
+      </c>
+      <c r="B111">
         <v>15</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>200</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>2050</v>
       </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>110</v>
+      </c>
+      <c r="B112">
         <v>15</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>250</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>2050</v>
       </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>111</v>
+      </c>
+      <c r="B113">
         <v>15</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>300</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>2000</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>112</v>
+      </c>
+      <c r="B114">
         <v>15</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>350</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>1950</v>
       </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>113</v>
+      </c>
+      <c r="B115">
         <v>15</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>400</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>1900</v>
       </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116" s="3">
-        <v>450</v>
-      </c>
-      <c r="C116">
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" s="3">
+        <v>450</v>
+      </c>
+      <c r="D116">
         <v>1900</v>
       </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1</v>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="C117">
+        <v>450</v>
+      </c>
+      <c r="D117">
         <v>1950</v>
       </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118" s="3">
-        <v>450</v>
-      </c>
-      <c r="C118">
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" s="3">
+        <v>450</v>
+      </c>
+      <c r="D118">
         <v>2000</v>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1</v>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="C119">
+        <v>450</v>
+      </c>
+      <c r="D119">
         <v>2050</v>
       </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1</v>
-      </c>
-      <c r="B120" s="3">
-        <v>450</v>
-      </c>
-      <c r="C120">
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="3">
+        <v>450</v>
+      </c>
+      <c r="D120">
         <v>2100</v>
       </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1</v>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="C121">
+        <v>450</v>
+      </c>
+      <c r="D121">
         <v>2150</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122" s="3">
-        <v>450</v>
-      </c>
-      <c r="C122">
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="3">
+        <v>450</v>
+      </c>
+      <c r="D122">
         <v>2200</v>
       </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>1</v>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>121</v>
       </c>
       <c r="B123">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="C123">
+        <v>450</v>
+      </c>
+      <c r="D123">
         <v>2250</v>
       </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124" s="3">
-        <v>450</v>
-      </c>
-      <c r="C124">
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" s="3">
+        <v>450</v>
+      </c>
+      <c r="D124">
         <v>2300</v>
       </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1</v>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="C125">
+        <v>450</v>
+      </c>
+      <c r="D125">
         <v>2350</v>
       </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126" s="3">
-        <v>450</v>
-      </c>
-      <c r="C126">
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" s="3">
+        <v>450</v>
+      </c>
+      <c r="D126">
         <v>2400</v>
       </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1</v>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="C127">
+        <v>450</v>
+      </c>
+      <c r="D127">
         <v>2450</v>
       </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128" s="3">
-        <v>450</v>
-      </c>
-      <c r="C128">
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" s="3">
+        <v>450</v>
+      </c>
+      <c r="D128">
         <v>2500</v>
       </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1</v>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>127</v>
       </c>
       <c r="B129">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="C129">
+        <v>450</v>
+      </c>
+      <c r="D129">
         <v>2550</v>
       </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="B130" s="3">
-        <v>450</v>
-      </c>
-      <c r="C130">
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" s="3">
+        <v>450</v>
+      </c>
+      <c r="D130">
         <v>2600</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>1</v>
       </c>
     </row>
